--- a/Lib_Repo_Excel/FileExcel_Digisales/SCD0011-034 - Admin SLN Mengakses Menu Report - Menu Product Holding Ratio - Report.xlsx
+++ b/Lib_Repo_Excel/FileExcel_Digisales/SCD0011-034 - Admin SLN Mengakses Menu Report - Menu Product Holding Ratio - Report.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2EADC6D-722E-4029-BAFC-2F544D092A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FFB51D5-703F-4B0E-8ED0-EB4014FAA035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SCD0203" sheetId="2" r:id="rId1"/>
+    <sheet name="SCD0011" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -107,14 +107,14 @@
 8. data not found</t>
   </si>
   <si>
-    <t>DGS-218</t>
-  </si>
-  <si>
     <t xml:space="preserve"> - Tertampil informasi data kosong/ data tidak ada 
  - Pada saat di lakukan download berhasil dengan data kosong</t>
   </si>
   <si>
     <t>Januari</t>
+  </si>
+  <si>
+    <t>SCD0011-034</t>
   </si>
 </sst>
 </file>
@@ -527,13 +527,13 @@
   <dimension ref="A1:Z6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="61.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="62.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -622,7 +622,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>20</v>
@@ -631,7 +631,7 @@
         <v>22</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2" s="12">
         <v>52326</v>
@@ -654,7 +654,7 @@
         <v>2022</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O2" s="14"/>
       <c r="P2" s="13"/>
